--- a/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A085D3D1-F4D0-41DA-A5CC-F2254EC4A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F3B86D-E6B0-4B8B-8484-CDDE77F9B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F44EBE1D-D87D-4C37-9454-F328C8A7FCFE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{483F14DD-AAAA-4DD8-B41D-E3E77862AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="394">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1099 +77,1093 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>Menos 50 metros</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>50 o mas metros sin ayuda</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>Menos 50 metros</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>50 o mas metros sin ayuda</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>5,84%</t>
@@ -1178,58 +1172,55 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>6,89%</t>
+    <t>6,9%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>9,06%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>86,1%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3446B958-417F-4C38-B5F4-33FBB1A35F25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7825DD04-5C51-46F6-8B7F-19DAF2AAC298}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>49836</v>
+        <v>49835</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>75</v>
@@ -1846,19 +1837,19 @@
         <v>76502</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>362</v>
@@ -1867,28 +1858,28 @@
         <v>339178</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>500</v>
       </c>
       <c r="I6" s="7">
-        <v>508716</v>
+        <v>508715</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>862</v>
@@ -1897,13 +1888,13 @@
         <v>847893</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,28 +1909,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1948,18 +1939,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1971,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1986,10 +1977,10 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>45</v>
@@ -2004,7 +1995,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -2064,7 +2055,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>85</v>
@@ -2124,13 +2115,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2139,13 +2130,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2154,13 +2145,13 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>67</v>
@@ -2192,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>68</v>
@@ -2207,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>69</v>
@@ -2228,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>67</v>
@@ -2246,7 +2237,7 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>71</v>
@@ -2261,7 +2252,7 @@
         <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>73</v>
@@ -2270,7 +2261,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2285,7 +2276,7 @@
         <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -2330,13 +2321,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2345,13 +2336,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2360,13 +2351,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2395,7 @@
         <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2413,13 +2404,13 @@
         <v>38597</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2425,13 @@
         <v>30303</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -2449,13 +2440,13 @@
         <v>54225</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2464,19 +2455,19 @@
         <v>84528</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>482</v>
@@ -2485,13 +2476,13 @@
         <v>464820</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>581</v>
@@ -2500,13 +2491,13 @@
         <v>591363</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M18" s="7">
         <v>1063</v>
@@ -2515,13 +2506,13 @@
         <v>1056183</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2527,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2551,13 +2542,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2566,18 +2557,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7E5AF1-D946-4325-B438-86DC8CFB1D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6B3187-56D8-4754-85C3-BC12E0FD5FFB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2720,13 +2711,13 @@
         <v>21191</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -2735,13 +2726,13 @@
         <v>64065</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -2750,13 +2741,13 @@
         <v>85257</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2762,13 @@
         <v>27644</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -2786,13 +2777,13 @@
         <v>65371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -2801,19 +2792,19 @@
         <v>93016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>336</v>
@@ -2822,13 +2813,13 @@
         <v>365562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H6" s="7">
         <v>478</v>
@@ -2837,13 +2828,13 @@
         <v>505108</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M6" s="7">
         <v>814</v>
@@ -2852,13 +2843,13 @@
         <v>870670</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2864,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2888,13 +2879,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2903,18 +2894,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2926,13 +2917,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2941,13 +2932,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2956,13 +2947,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2968,13 @@
         <v>7111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2992,13 +2983,13 @@
         <v>4252</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3007,19 +2998,19 @@
         <v>11363</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>97</v>
@@ -3028,13 +3019,13 @@
         <v>110562</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3043,13 +3034,13 @@
         <v>76398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -3058,13 +3049,13 @@
         <v>186960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3070,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -3094,13 +3085,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -3109,13 +3100,13 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3123,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3147,13 +3138,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3162,13 +3153,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3174,13 @@
         <v>1043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3198,13 +3189,13 @@
         <v>2215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3213,19 +3204,19 @@
         <v>3258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -3234,10 +3225,10 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>74</v>
@@ -3249,13 +3240,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3264,13 +3255,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3276,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3300,13 +3291,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3315,13 +3306,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3329,13 @@
         <v>23169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3353,13 +3344,13 @@
         <v>67589</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3368,13 +3359,13 @@
         <v>90758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3380,13 @@
         <v>35798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3404,13 +3395,13 @@
         <v>71838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -3419,19 +3410,19 @@
         <v>107636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>452</v>
@@ -3440,13 +3431,13 @@
         <v>500670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -3455,13 +3446,13 @@
         <v>600438</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="M18" s="7">
         <v>1016</v>
@@ -3470,13 +3461,13 @@
         <v>1101108</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3482,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3506,13 +3497,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3521,18 +3512,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3551,7 +3542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0155D2DB-2558-439D-B6CA-D3D0D899A9E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEF1D32-BFE2-468E-B20C-B212B9404AFD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3568,7 +3559,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3675,13 +3666,13 @@
         <v>13526</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -3690,13 +3681,13 @@
         <v>33432</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -3705,13 +3696,13 @@
         <v>46958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3717,13 @@
         <v>24960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -3741,13 +3732,13 @@
         <v>74505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -3756,34 +3747,34 @@
         <v>99465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>343</v>
       </c>
       <c r="D6" s="7">
-        <v>315416</v>
+        <v>315415</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>385</v>
@@ -3792,13 +3783,13 @@
         <v>446821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>728</v>
@@ -3807,13 +3798,13 @@
         <v>762235</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,16 +3816,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3843,13 +3834,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3858,18 +3849,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3881,13 +3872,13 @@
         <v>3657</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3896,13 +3887,13 @@
         <v>5489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3911,13 +3902,13 @@
         <v>9145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3923,13 @@
         <v>2561</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3947,13 +3938,13 @@
         <v>12065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3962,19 +3953,19 @@
         <v>14626</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>190</v>
@@ -3983,13 +3974,13 @@
         <v>186314</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -3998,13 +3989,13 @@
         <v>170521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>333</v>
@@ -4013,13 +4004,13 @@
         <v>356835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4025,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -4049,13 +4040,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -4064,13 +4055,13 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4078,13 @@
         <v>1572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4102,13 +4093,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4117,13 +4108,13 @@
         <v>2948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4129,13 @@
         <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4153,13 +4144,13 @@
         <v>2475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4168,19 +4159,19 @@
         <v>3366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -4189,10 +4180,10 @@
         <v>39565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>74</v>
@@ -4204,13 +4195,13 @@
         <v>29823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -4219,13 +4210,13 @@
         <v>69389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4231,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4255,13 +4246,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4270,13 +4261,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4284,13 @@
         <v>18755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4308,13 +4299,13 @@
         <v>40296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4323,13 +4314,13 @@
         <v>59051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4335,13 @@
         <v>28413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -4359,13 +4350,13 @@
         <v>89044</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4374,19 +4365,19 @@
         <v>117457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>572</v>
@@ -4395,13 +4386,13 @@
         <v>541295</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>551</v>
@@ -4410,13 +4401,13 @@
         <v>647165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>1123</v>
@@ -4425,13 +4416,13 @@
         <v>1188460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4437,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4461,13 +4452,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4476,18 +4467,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED5A64-CA6F-4345-8FA1-8AB2B983808B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8B3C76-09B4-4376-98BB-209EF0A37ED4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4523,7 +4514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4630,13 +4621,13 @@
         <v>15908</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>125</v>
@@ -4645,13 +4636,13 @@
         <v>70277</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>150</v>
@@ -4660,13 +4651,13 @@
         <v>86185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4672,13 @@
         <v>31422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -4696,13 +4687,13 @@
         <v>106158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -4711,19 +4702,19 @@
         <v>137580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>353</v>
@@ -4732,13 +4723,13 @@
         <v>240142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>703</v>
@@ -4747,13 +4738,13 @@
         <v>378460</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>1056</v>
@@ -4762,13 +4753,13 @@
         <v>618602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4774,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4798,13 +4789,13 @@
         <v>554895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1446</v>
@@ -4813,18 +4804,18 @@
         <v>842367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4836,13 +4827,13 @@
         <v>4390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4851,13 +4842,13 @@
         <v>7333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4866,13 +4857,13 @@
         <v>11723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4878,13 @@
         <v>13714</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>335</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>332</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4902,13 +4893,13 @@
         <v>17619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>138</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -4917,19 +4908,19 @@
         <v>31333</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>400</v>
@@ -4938,13 +4929,13 @@
         <v>276463</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -4953,13 +4944,13 @@
         <v>360971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>879</v>
@@ -4968,13 +4959,13 @@
         <v>637433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4980,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -5004,13 +4995,13 @@
         <v>385923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>954</v>
@@ -5019,13 +5010,13 @@
         <v>680489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5033,13 @@
         <v>1397</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5057,13 +5048,13 @@
         <v>662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5072,13 +5063,13 @@
         <v>2059</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5084,13 @@
         <v>4263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5108,13 +5099,13 @@
         <v>5588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5123,19 +5114,19 @@
         <v>9851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>160</v>
@@ -5144,13 +5135,13 @@
         <v>106326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>141</v>
@@ -5159,13 +5150,13 @@
         <v>71996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -5174,13 +5165,13 @@
         <v>178322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5186,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5210,13 +5201,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5225,13 +5216,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5239,13 @@
         <v>21695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5263,13 +5254,13 @@
         <v>78272</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -5278,13 +5269,13 @@
         <v>99966</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5290,13 @@
         <v>49399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -5314,13 +5305,13 @@
         <v>129365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -5329,19 +5320,19 @@
         <v>178764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>913</v>
@@ -5350,13 +5341,13 @@
         <v>622931</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H18" s="7">
         <v>1323</v>
@@ -5365,13 +5356,13 @@
         <v>811427</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>227</v>
+        <v>389</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M18" s="7">
         <v>2236</v>
@@ -5380,13 +5371,13 @@
         <v>1434357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5392,13 @@
         <v>694024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1698</v>
@@ -5416,13 +5407,13 @@
         <v>1019064</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>2720</v>
@@ -5431,18 +5422,18 @@
         <v>1713087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F3B86D-E6B0-4B8B-8484-CDDE77F9B6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1E9B82-CA7C-4972-BD36-11DBECE8E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{483F14DD-AAAA-4DD8-B41D-E3E77862AC48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1AD38F7-BF67-40B4-BCF8-AA3BFCD94E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="402">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1126 +77,1150 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>Menos 50 metros</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>50 o mas metros sin ayuda</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>Menos 50 metros</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>50 o mas metros sin ayuda</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>89,76%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
   </si>
   <si>
     <t>87,62%</t>
@@ -1632,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7825DD04-5C51-46F6-8B7F-19DAF2AAC298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FF3410-C5EB-4A77-9C05-ED5F9BC7D8C9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1810,25 +1834,25 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>49835</v>
+        <v>49836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>75</v>
@@ -1837,19 +1861,19 @@
         <v>76502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>362</v>
@@ -1858,28 +1882,28 @@
         <v>339178</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>500</v>
       </c>
       <c r="I6" s="7">
-        <v>508715</v>
+        <v>508716</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>862</v>
@@ -1888,13 +1912,13 @@
         <v>847893</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,28 +1933,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1939,18 +1963,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1962,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1977,13 +2001,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1992,13 +2016,13 @@
         <v>2055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,13 +2037,13 @@
         <v>3636</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -2028,13 +2052,13 @@
         <v>3464</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2043,19 +2067,19 @@
         <v>7100</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>85</v>
@@ -2064,13 +2088,13 @@
         <v>84447</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -2079,13 +2103,13 @@
         <v>56693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -2094,13 +2118,13 @@
         <v>141140</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2139,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2130,13 +2154,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2145,18 +2169,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2168,13 +2192,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2183,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2198,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2234,13 +2258,13 @@
         <v>926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2249,19 +2273,19 @@
         <v>926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2270,13 +2294,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -2285,13 +2309,13 @@
         <v>25955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -2300,13 +2324,13 @@
         <v>67149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2345,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2336,13 +2360,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2351,13 +2375,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2398,13 @@
         <v>7344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2389,13 +2413,13 @@
         <v>31253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2404,13 +2428,13 @@
         <v>38597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2449,13 @@
         <v>30303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -2440,13 +2464,13 @@
         <v>54225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2455,19 +2479,19 @@
         <v>84528</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>482</v>
@@ -2476,13 +2500,13 @@
         <v>464820</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>581</v>
@@ -2491,13 +2515,13 @@
         <v>591363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>1063</v>
@@ -2506,13 +2530,13 @@
         <v>1056183</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2551,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2542,13 +2566,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2557,18 +2581,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6B3187-56D8-4754-85C3-BC12E0FD5FFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A0FDA5-BAB7-4D41-A5AD-8B75B05ECF92}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2604,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2711,13 +2735,13 @@
         <v>21191</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -2726,13 +2750,13 @@
         <v>64065</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -2741,13 +2765,13 @@
         <v>85257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2786,13 @@
         <v>27644</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -2777,13 +2801,13 @@
         <v>65371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -2792,19 +2816,19 @@
         <v>93016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>336</v>
@@ -2813,13 +2837,13 @@
         <v>365562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H6" s="7">
         <v>478</v>
@@ -2828,13 +2852,13 @@
         <v>505108</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M6" s="7">
         <v>814</v>
@@ -2843,13 +2867,13 @@
         <v>870670</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2888,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2879,13 +2903,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2894,18 +2918,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2917,13 +2941,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2932,13 +2956,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2947,13 +2971,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2992,13 @@
         <v>7111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2983,13 +3007,13 @@
         <v>4252</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2998,19 +3022,19 @@
         <v>11363</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>97</v>
@@ -3019,13 +3043,13 @@
         <v>110562</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3034,13 +3058,13 @@
         <v>76398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -3049,13 +3073,13 @@
         <v>186960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3094,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -3085,13 +3109,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -3100,18 +3124,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3123,13 +3147,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3138,13 +3162,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3153,13 +3177,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3198,13 @@
         <v>1043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3189,13 +3213,13 @@
         <v>2215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3204,19 +3228,19 @@
         <v>3258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -3225,13 +3249,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3240,13 +3264,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3255,13 +3279,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3300,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3291,13 +3315,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3306,13 +3330,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3353,13 @@
         <v>23169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3344,13 +3368,13 @@
         <v>67589</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3359,13 +3383,13 @@
         <v>90758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3404,13 @@
         <v>35798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3395,13 +3419,13 @@
         <v>71838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -3410,19 +3434,19 @@
         <v>107636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>452</v>
@@ -3431,13 +3455,13 @@
         <v>500670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -3446,13 +3470,13 @@
         <v>600438</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
         <v>1016</v>
@@ -3461,13 +3485,13 @@
         <v>1101108</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3506,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3497,13 +3521,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3512,18 +3536,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEF1D32-BFE2-468E-B20C-B212B9404AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F91F75-A737-4750-A12C-F724A43BAE80}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3559,7 +3583,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3666,13 +3690,13 @@
         <v>13526</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -3681,13 +3705,13 @@
         <v>33432</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -3696,13 +3720,13 @@
         <v>46958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3741,13 @@
         <v>24960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -3732,13 +3756,13 @@
         <v>74505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -3747,34 +3771,34 @@
         <v>99465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>343</v>
       </c>
       <c r="D6" s="7">
-        <v>315415</v>
+        <v>315416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>385</v>
@@ -3783,13 +3807,13 @@
         <v>446821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>728</v>
@@ -3798,13 +3822,13 @@
         <v>762235</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,16 +3840,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3834,13 +3858,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3849,18 +3873,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3872,13 +3896,13 @@
         <v>3657</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3887,13 +3911,13 @@
         <v>5489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3902,13 +3926,13 @@
         <v>9145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3947,13 @@
         <v>2561</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3938,13 +3962,13 @@
         <v>12065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3953,19 +3977,19 @@
         <v>14626</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>190</v>
@@ -3974,13 +3998,13 @@
         <v>186314</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -3989,13 +4013,13 @@
         <v>170521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>333</v>
@@ -4004,13 +4028,13 @@
         <v>356835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4049,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -4040,13 +4064,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -4055,18 +4079,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4078,13 +4102,13 @@
         <v>1572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4093,13 +4117,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4108,13 +4132,13 @@
         <v>2948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4153,13 @@
         <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4144,13 +4168,13 @@
         <v>2475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4159,19 +4183,19 @@
         <v>3366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -4180,13 +4204,13 @@
         <v>39565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4195,13 +4219,13 @@
         <v>29823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -4210,13 +4234,13 @@
         <v>69389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4255,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4246,13 +4270,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4261,13 +4285,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4308,13 @@
         <v>18755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4299,13 +4323,13 @@
         <v>40296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4314,13 +4338,13 @@
         <v>59051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4359,13 @@
         <v>28413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -4350,13 +4374,13 @@
         <v>89044</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4365,19 +4389,19 @@
         <v>117457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>572</v>
@@ -4386,13 +4410,13 @@
         <v>541295</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>551</v>
@@ -4401,13 +4425,13 @@
         <v>647165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>1123</v>
@@ -4416,13 +4440,13 @@
         <v>1188460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4461,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4452,13 +4476,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4467,18 +4491,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +4521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8B3C76-09B4-4376-98BB-209EF0A37ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E8C441-CDC3-4BF4-9DFC-E70561BA263F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4514,7 +4538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4621,13 +4645,13 @@
         <v>15908</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>125</v>
@@ -4636,13 +4660,13 @@
         <v>70277</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>150</v>
@@ -4651,13 +4675,13 @@
         <v>86185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4696,13 @@
         <v>31422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -4687,13 +4711,13 @@
         <v>106158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -4702,19 +4726,19 @@
         <v>137580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>353</v>
@@ -4723,13 +4747,13 @@
         <v>240142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H6" s="7">
         <v>703</v>
@@ -4738,13 +4762,13 @@
         <v>378460</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M6" s="7">
         <v>1056</v>
@@ -4753,13 +4777,13 @@
         <v>618602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4798,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4789,13 +4813,13 @@
         <v>554895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1446</v>
@@ -4804,18 +4828,18 @@
         <v>842367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4827,13 +4851,13 @@
         <v>4390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4842,13 +4866,13 @@
         <v>7333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4857,13 +4881,13 @@
         <v>11723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4902,13 @@
         <v>13714</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4893,13 +4917,13 @@
         <v>17619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -4908,19 +4932,19 @@
         <v>31333</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>400</v>
@@ -4929,13 +4953,13 @@
         <v>276463</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -4944,13 +4968,13 @@
         <v>360971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>879</v>
@@ -4959,13 +4983,13 @@
         <v>637433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +5004,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -4995,13 +5019,13 @@
         <v>385923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>954</v>
@@ -5010,18 +5034,18 @@
         <v>680489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5033,13 +5057,13 @@
         <v>1397</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5048,13 +5072,13 @@
         <v>662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5063,13 +5087,13 @@
         <v>2059</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5108,13 @@
         <v>4263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5099,13 +5123,13 @@
         <v>5588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5114,19 +5138,19 @@
         <v>9851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>160</v>
@@ -5135,13 +5159,13 @@
         <v>106326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>141</v>
@@ -5150,13 +5174,13 @@
         <v>71996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -5165,13 +5189,13 @@
         <v>178322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5210,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5201,13 +5225,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5216,13 +5240,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5263,13 @@
         <v>21695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5254,13 +5278,13 @@
         <v>78272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -5269,13 +5293,13 @@
         <v>99966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5314,13 @@
         <v>49399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -5305,13 +5329,13 @@
         <v>129365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -5320,19 +5344,19 @@
         <v>178764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>913</v>
@@ -5341,13 +5365,13 @@
         <v>622931</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>58</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>1323</v>
@@ -5356,13 +5380,13 @@
         <v>811427</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>2236</v>
@@ -5371,13 +5395,13 @@
         <v>1434357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5416,13 @@
         <v>694024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1698</v>
@@ -5407,13 +5431,13 @@
         <v>1019064</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>2720</v>
@@ -5422,18 +5446,18 @@
         <v>1713087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1E9B82-CA7C-4972-BD36-11DBECE8E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DFF07AE-651B-416F-8D74-29D3FE9F6A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1AD38F7-BF67-40B4-BCF8-AA3BFCD94E0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA8FA34C-22D0-4FFD-9147-5840D1C2E5EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="397">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1174 +77,1159 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,78%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>Menos 50 metros</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>50 o mas metros sin ayuda</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>Menos 50 metros</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>50 o mas metros sin ayuda</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FF3410-C5EB-4A77-9C05-ED5F9BC7D8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB23BF1A-CC8C-455D-B21D-5F7FE4AC1DEC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2001,13 +1986,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2016,13 +2001,13 @@
         <v>2055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2022,13 @@
         <v>3636</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -2052,13 +2037,13 @@
         <v>3464</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2067,13 +2052,13 @@
         <v>7100</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2073,13 @@
         <v>84447</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -2103,13 +2088,13 @@
         <v>56693</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -2118,13 +2103,13 @@
         <v>141140</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,7 +2165,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2198,7 +2183,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2213,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2228,7 +2213,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2234,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2258,13 +2243,13 @@
         <v>926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2273,13 +2258,13 @@
         <v>926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,10 +2279,10 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2309,13 +2294,13 @@
         <v>25955</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -2324,13 +2309,13 @@
         <v>67149</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2383,13 @@
         <v>7344</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2413,13 +2398,13 @@
         <v>31253</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2428,13 +2413,13 @@
         <v>38597</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2434,13 @@
         <v>30303</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -2464,13 +2449,13 @@
         <v>54225</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2479,13 +2464,13 @@
         <v>84528</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2485,13 @@
         <v>464820</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>581</v>
@@ -2515,13 +2500,13 @@
         <v>591363</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>1063</v>
@@ -2530,13 +2515,13 @@
         <v>1056183</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2577,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A0FDA5-BAB7-4D41-A5AD-8B75B05ECF92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A1118B-73EC-422E-BA2A-51A4A029BA92}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2628,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2735,13 +2720,13 @@
         <v>21191</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -2750,13 +2735,13 @@
         <v>64065</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -2765,13 +2750,13 @@
         <v>85257</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2771,13 @@
         <v>27644</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -2801,13 +2786,13 @@
         <v>65371</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -2816,13 +2801,13 @@
         <v>93016</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2822,13 @@
         <v>365562</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H6" s="7">
         <v>478</v>
@@ -2852,13 +2837,13 @@
         <v>505108</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M6" s="7">
         <v>814</v>
@@ -2867,13 +2852,13 @@
         <v>870670</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2926,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2956,13 +2941,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2971,13 +2956,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2977,13 @@
         <v>7111</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3007,13 +2992,13 @@
         <v>4252</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3022,13 +3007,13 @@
         <v>11363</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3028,13 @@
         <v>110562</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3058,13 +3043,13 @@
         <v>76398</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -3073,13 +3058,13 @@
         <v>186960</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3120,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3147,13 +3132,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3162,13 +3147,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3177,13 +3162,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3183,13 @@
         <v>1043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3213,13 +3198,13 @@
         <v>2215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3228,13 +3213,13 @@
         <v>3258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3234,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3264,13 +3249,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3279,13 +3264,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3338,13 @@
         <v>23169</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3368,13 +3353,13 @@
         <v>67589</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3383,13 +3368,13 @@
         <v>90758</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3389,13 @@
         <v>35798</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3419,13 +3404,13 @@
         <v>71838</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -3434,13 +3419,13 @@
         <v>107636</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3440,13 @@
         <v>500670</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -3470,13 +3455,13 @@
         <v>600438</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M18" s="7">
         <v>1016</v>
@@ -3485,13 +3470,13 @@
         <v>1101108</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3532,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3566,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F91F75-A737-4750-A12C-F724A43BAE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ADE775-F469-4B32-B9EB-DBEAEC429641}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3583,7 +3568,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3690,13 +3675,13 @@
         <v>13526</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -3705,13 +3690,13 @@
         <v>33432</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -3720,13 +3705,13 @@
         <v>46958</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3726,13 @@
         <v>24960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -3756,13 +3741,13 @@
         <v>74505</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -3771,13 +3756,13 @@
         <v>99465</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3777,13 @@
         <v>315416</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>385</v>
@@ -3807,13 +3792,13 @@
         <v>446821</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>728</v>
@@ -3822,13 +3807,13 @@
         <v>762235</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3881,13 @@
         <v>3657</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3911,13 +3896,13 @@
         <v>5489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3926,13 +3911,13 @@
         <v>9145</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3932,13 @@
         <v>2561</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3962,13 +3947,13 @@
         <v>12065</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3977,13 +3962,13 @@
         <v>14626</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3983,13 @@
         <v>186314</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -4013,13 +3998,13 @@
         <v>170521</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>333</v>
@@ -4028,13 +4013,13 @@
         <v>356835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,7 +4075,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4102,13 +4087,13 @@
         <v>1572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4117,13 +4102,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4132,13 +4117,13 @@
         <v>2948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4138,13 @@
         <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4168,13 +4153,13 @@
         <v>2475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4183,13 +4168,13 @@
         <v>3366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4189,13 @@
         <v>39565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4219,13 +4204,13 @@
         <v>29823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -4234,13 +4219,13 @@
         <v>69389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4293,13 @@
         <v>18755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4323,13 +4308,13 @@
         <v>40296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4338,13 +4323,13 @@
         <v>59051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4344,13 @@
         <v>28413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -4374,13 +4359,13 @@
         <v>89044</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4389,13 +4374,13 @@
         <v>117457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4395,13 @@
         <v>541295</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>551</v>
@@ -4425,13 +4410,13 @@
         <v>647165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>1123</v>
@@ -4440,13 +4425,13 @@
         <v>1188460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4487,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4521,7 +4506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E8C441-CDC3-4BF4-9DFC-E70561BA263F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FEEC37-0CE3-4F3B-BB20-001A77D2CAC0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4538,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4645,13 +4630,13 @@
         <v>15908</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>125</v>
@@ -4660,13 +4645,13 @@
         <v>70277</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>150</v>
@@ -4675,13 +4660,13 @@
         <v>86185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4681,13 @@
         <v>31422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -4711,13 +4696,13 @@
         <v>106158</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -4726,13 +4711,13 @@
         <v>137580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4732,13 @@
         <v>240142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>703</v>
@@ -4762,13 +4747,13 @@
         <v>378460</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>1056</v>
@@ -4777,13 +4762,13 @@
         <v>618602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4836,13 @@
         <v>4390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4866,13 +4851,13 @@
         <v>7333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4881,13 +4866,13 @@
         <v>11723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4887,13 @@
         <v>13714</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4917,13 +4902,13 @@
         <v>17619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -4932,13 +4917,13 @@
         <v>31333</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4938,13 @@
         <v>276463</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -4968,13 +4953,13 @@
         <v>360971</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>879</v>
@@ -4983,13 +4968,13 @@
         <v>637433</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,7 +5030,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5057,13 +5042,13 @@
         <v>1397</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5072,13 +5057,13 @@
         <v>662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5087,13 +5072,13 @@
         <v>2059</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5093,13 @@
         <v>4263</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5123,13 +5108,13 @@
         <v>5588</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5138,13 +5123,13 @@
         <v>9851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5144,13 @@
         <v>106326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>141</v>
@@ -5174,13 +5159,13 @@
         <v>71996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -5189,13 +5174,13 @@
         <v>178322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5248,13 @@
         <v>21695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5278,13 +5263,13 @@
         <v>78272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -5293,13 +5278,13 @@
         <v>99966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5299,13 @@
         <v>49399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -5329,13 +5314,13 @@
         <v>129365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -5344,13 +5329,13 @@
         <v>178764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5350,13 @@
         <v>622931</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>1323</v>
@@ -5380,13 +5365,13 @@
         <v>811427</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>397</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>2236</v>
@@ -5395,13 +5380,13 @@
         <v>1434357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5442,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DFF07AE-651B-416F-8D74-29D3FE9F6A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD02BF6-33D7-4ADB-AA72-075C97841C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA8FA34C-22D0-4FFD-9147-5840D1C2E5EC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67717FA3-BC42-49BC-943D-CE77E033E9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -941,295 +941,295 @@
     <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB23BF1A-CC8C-455D-B21D-5F7FE4AC1DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59804491-F5D8-4C4D-9F1B-E2DC5655A502}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1828,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>49836</v>
+        <v>49835</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1879,7 +1879,7 @@
         <v>500</v>
       </c>
       <c r="I6" s="7">
-        <v>508716</v>
+        <v>508715</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1930,7 +1930,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A1118B-73EC-422E-BA2A-51A4A029BA92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F679775-A412-4055-B37A-6F840B16186D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ADE775-F469-4B32-B9EB-DBEAEC429641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F5FA92-8D39-48FC-A446-7FE2B29C9FA3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3774,7 +3774,7 @@
         <v>343</v>
       </c>
       <c r="D6" s="7">
-        <v>315416</v>
+        <v>315415</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>223</v>
@@ -3825,7 +3825,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4506,7 +4506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FEEC37-0CE3-4F3B-BB20-001A77D2CAC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA6185-0A40-4437-A9C4-24AD3EDB4B7A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4627,7 +4627,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>15908</v>
+        <v>14803</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>300</v>
@@ -4642,7 +4642,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="7">
-        <v>70277</v>
+        <v>61800</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>303</v>
@@ -4657,16 +4657,16 @@
         <v>150</v>
       </c>
       <c r="N4" s="7">
-        <v>86185</v>
+        <v>76603</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,46 +4678,46 @@
         <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>31422</v>
+        <v>29139</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
       </c>
       <c r="I5" s="7">
-        <v>106158</v>
+        <v>94367</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
       </c>
       <c r="N5" s="7">
-        <v>137580</v>
+        <v>123506</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,46 +4729,46 @@
         <v>353</v>
       </c>
       <c r="D6" s="7">
-        <v>240142</v>
+        <v>225302</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>703</v>
       </c>
       <c r="I6" s="7">
-        <v>378460</v>
+        <v>344001</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>1056</v>
       </c>
       <c r="N6" s="7">
-        <v>618602</v>
+        <v>569302</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +4780,7 @@
         <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4795,7 +4795,7 @@
         <v>1018</v>
       </c>
       <c r="I7" s="7">
-        <v>554895</v>
+        <v>500168</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4810,7 +4810,7 @@
         <v>1446</v>
       </c>
       <c r="N7" s="7">
-        <v>842367</v>
+        <v>769411</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4833,46 +4833,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>4390</v>
+        <v>4111</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>7333</v>
+        <v>6728</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>11723</v>
+        <v>10839</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,22 +4884,22 @@
         <v>20</v>
       </c>
       <c r="D9" s="7">
-        <v>13714</v>
+        <v>12414</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>17619</v>
+        <v>15522</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>337</v>
@@ -4914,16 +4914,16 @@
         <v>55</v>
       </c>
       <c r="N9" s="7">
-        <v>31333</v>
+        <v>27937</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>340</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>341</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,46 +4935,46 @@
         <v>400</v>
       </c>
       <c r="D10" s="7">
-        <v>276463</v>
+        <v>256732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
       </c>
       <c r="I10" s="7">
-        <v>360971</v>
+        <v>433055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>879</v>
       </c>
       <c r="N10" s="7">
-        <v>637433</v>
+        <v>689787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4986,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5001,7 +5001,7 @@
         <v>528</v>
       </c>
       <c r="I11" s="7">
-        <v>385923</v>
+        <v>455306</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5016,7 +5016,7 @@
         <v>954</v>
       </c>
       <c r="N11" s="7">
-        <v>680489</v>
+        <v>728563</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5039,22 +5039,22 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1397</v>
+        <v>1329</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>662</v>
+        <v>550</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>354</v>
@@ -5063,22 +5063,22 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>2059</v>
+        <v>1879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,46 +5090,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4263</v>
+        <v>3715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>5588</v>
+        <v>4951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>9851</v>
+        <v>8666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,46 +5141,46 @@
         <v>160</v>
       </c>
       <c r="D14" s="7">
-        <v>106326</v>
+        <v>99942</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>141</v>
       </c>
       <c r="I14" s="7">
-        <v>71996</v>
+        <v>65823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
       </c>
       <c r="N14" s="7">
-        <v>178322</v>
+        <v>165765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5192,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5207,7 +5207,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5222,7 +5222,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5245,46 +5245,46 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>21695</v>
+        <v>20242</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
       </c>
       <c r="I16" s="7">
-        <v>78272</v>
+        <v>69079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>99966</v>
+        <v>89322</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,43 +5296,43 @@
         <v>75</v>
       </c>
       <c r="D17" s="7">
-        <v>49399</v>
+        <v>45269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
       </c>
       <c r="I17" s="7">
-        <v>129365</v>
+        <v>114840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
       </c>
       <c r="N17" s="7">
-        <v>178764</v>
+        <v>160109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>388</v>
@@ -5347,7 +5347,7 @@
         <v>913</v>
       </c>
       <c r="D18" s="7">
-        <v>622931</v>
+        <v>581976</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>389</v>
@@ -5362,25 +5362,25 @@
         <v>1323</v>
       </c>
       <c r="I18" s="7">
-        <v>811427</v>
+        <v>842879</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M18" s="7">
         <v>2236</v>
       </c>
       <c r="N18" s="7">
-        <v>1434357</v>
+        <v>1424855</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>395</v>
@@ -5398,7 +5398,7 @@
         <v>1022</v>
       </c>
       <c r="D19" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5413,7 +5413,7 @@
         <v>1698</v>
       </c>
       <c r="I19" s="7">
-        <v>1019064</v>
+        <v>1026798</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5428,7 +5428,7 @@
         <v>2720</v>
       </c>
       <c r="N19" s="7">
-        <v>1713087</v>
+        <v>1674285</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
